--- a/作業管理/作業管理表（先崎）.xlsx
+++ b/作業管理/作業管理表（先崎）.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -77,6 +77,20 @@
     <t>2時間半</t>
     <rPh sb="1" eb="4">
       <t>ジカンハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2時間半</t>
+    <rPh sb="1" eb="4">
+      <t>ジカンハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6時間</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -445,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.08203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -481,6 +495,27 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1">
+        <v>42689</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1">
+        <v>42690</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1">
+        <v>42691</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/作業管理/作業管理表（先崎）.xlsx
+++ b/作業管理/作業管理表（先崎）.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -67,13 +67,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>hibernateの勉強</t>
-    <rPh sb="10" eb="12">
-      <t>ベンキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2時間半</t>
     <rPh sb="1" eb="4">
       <t>ジカンハン</t>
@@ -88,9 +81,45 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6時間</t>
-    <rPh sb="1" eb="3">
+    <t>10時間</t>
+    <rPh sb="2" eb="4">
       <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>劉さんの過去のプログラムを動かせるようにしつつ勉強</t>
+    <rPh sb="0" eb="1">
+      <t>リュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ベンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動作確認完了</t>
+    <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <rPh sb="0" eb="2">
+      <t>ドウジョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -462,7 +491,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.08203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -489,32 +518,39 @@
         <v>42688</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>42689</v>
       </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
-        <v>42690</v>
+        <v>42691</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1">
-        <v>42691</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
